--- a/EXCEL/夹具定义模板.xlsx
+++ b/EXCEL/夹具定义模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Terry\Web\TMS-forestage\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5F271E-4579-42B2-A1DA-7C1529015527}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2562A472-6869-4681-8043-DCA2E01E13CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,9 +78,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -158,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -171,9 +168,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -188,6 +182,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -470,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8A3BBF-5411-4C88-8DF5-055B0783014C}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -482,10 +483,10 @@
     <col min="5" max="5" width="16.6640625" customWidth="1"/>
     <col min="6" max="6" width="34.21875" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="10"/>
-    <col min="11" max="11" width="20.88671875" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="9"/>
+    <col min="11" max="11" width="20.88671875" style="12" customWidth="1"/>
     <col min="12" max="12" width="12.44140625" customWidth="1"/>
-    <col min="13" max="13" width="19.21875" customWidth="1"/>
+    <col min="13" max="13" width="19.21875" style="12" customWidth="1"/>
     <col min="14" max="14" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -514,19 +515,19 @@
       <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>11</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="N1" s="2" t="s">
@@ -539,14 +540,14 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="9"/>
+      <c r="I2" s="8"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="5"/>
+      <c r="K2" s="11"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="5"/>
+      <c r="M2" s="11"/>
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -555,14 +556,14 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="5"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="9"/>
+      <c r="I3" s="8"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="5"/>
+      <c r="K3" s="11"/>
       <c r="L3" s="4"/>
-      <c r="M3" s="5"/>
+      <c r="M3" s="11"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -571,14 +572,14 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="5"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="9"/>
+      <c r="I4" s="8"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="5"/>
+      <c r="K4" s="11"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="5"/>
+      <c r="M4" s="11"/>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -587,14 +588,14 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="5"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="9"/>
+      <c r="I5" s="8"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="5"/>
+      <c r="K5" s="11"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="5"/>
+      <c r="M5" s="11"/>
       <c r="N5" s="4"/>
     </row>
     <row r="6" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -603,14 +604,14 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="7"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="4"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="9"/>
+      <c r="I6" s="8"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="5"/>
+      <c r="K6" s="11"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="5"/>
+      <c r="M6" s="11"/>
       <c r="N6" s="4"/>
     </row>
     <row r="7" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -619,14 +620,14 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="7"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="4"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="9"/>
+      <c r="I7" s="8"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="5"/>
+      <c r="K7" s="11"/>
       <c r="L7" s="4"/>
-      <c r="M7" s="5"/>
+      <c r="M7" s="11"/>
       <c r="N7" s="4"/>
     </row>
     <row r="8" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -635,14 +636,14 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="7"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="4"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="9"/>
+      <c r="I8" s="8"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="5"/>
+      <c r="K8" s="11"/>
       <c r="L8" s="4"/>
-      <c r="M8" s="5"/>
+      <c r="M8" s="11"/>
       <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -651,14 +652,14 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="7"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="4"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="9"/>
+      <c r="I9" s="8"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="5"/>
+      <c r="K9" s="11"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="5"/>
+      <c r="M9" s="11"/>
       <c r="N9" s="4"/>
     </row>
     <row r="10" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -667,14 +668,14 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="7"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="4"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="9"/>
+      <c r="I10" s="8"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="5"/>
+      <c r="K10" s="11"/>
       <c r="L10" s="4"/>
-      <c r="M10" s="5"/>
+      <c r="M10" s="11"/>
       <c r="N10" s="4"/>
     </row>
     <row r="11" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -683,14 +684,14 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="7"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="4"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="9"/>
+      <c r="I11" s="8"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="5"/>
+      <c r="K11" s="11"/>
       <c r="L11" s="4"/>
-      <c r="M11" s="5"/>
+      <c r="M11" s="11"/>
       <c r="N11" s="4"/>
     </row>
     <row r="12" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -699,14 +700,14 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="7"/>
+      <c r="F12" s="6"/>
       <c r="G12" s="4"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="9"/>
+      <c r="I12" s="8"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="5"/>
+      <c r="K12" s="11"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="5"/>
+      <c r="M12" s="11"/>
       <c r="N12" s="4"/>
     </row>
     <row r="13" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -715,14 +716,14 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="7"/>
+      <c r="F13" s="6"/>
       <c r="G13" s="4"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="9"/>
+      <c r="I13" s="8"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="5"/>
+      <c r="K13" s="11"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="5"/>
+      <c r="M13" s="11"/>
       <c r="N13" s="4"/>
     </row>
     <row r="14" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -731,14 +732,14 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="7"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="4"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="9"/>
+      <c r="I14" s="8"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="5"/>
+      <c r="K14" s="11"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="5"/>
+      <c r="M14" s="11"/>
       <c r="N14" s="4"/>
     </row>
     <row r="15" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -747,14 +748,14 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="7"/>
+      <c r="F15" s="6"/>
       <c r="G15" s="4"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="9"/>
+      <c r="I15" s="8"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="5"/>
+      <c r="K15" s="11"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="5"/>
+      <c r="M15" s="11"/>
       <c r="N15" s="4"/>
     </row>
     <row r="16" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -763,14 +764,14 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="7"/>
+      <c r="F16" s="6"/>
       <c r="G16" s="4"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="9"/>
+      <c r="I16" s="8"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="5"/>
+      <c r="K16" s="11"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="5"/>
+      <c r="M16" s="11"/>
       <c r="N16" s="4"/>
     </row>
     <row r="17" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -779,14 +780,14 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="7"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="4"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="9"/>
+      <c r="I17" s="8"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="5"/>
+      <c r="K17" s="11"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="5"/>
+      <c r="M17" s="11"/>
       <c r="N17" s="4"/>
     </row>
     <row r="18" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -795,14 +796,14 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="7"/>
+      <c r="F18" s="6"/>
       <c r="G18" s="4"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="9"/>
+      <c r="I18" s="8"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="5"/>
+      <c r="K18" s="11"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="5"/>
+      <c r="M18" s="11"/>
       <c r="N18" s="4"/>
     </row>
     <row r="19" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -811,14 +812,14 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="7"/>
+      <c r="F19" s="6"/>
       <c r="G19" s="4"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="9"/>
+      <c r="I19" s="8"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="5"/>
+      <c r="K19" s="11"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="5"/>
+      <c r="M19" s="11"/>
       <c r="N19" s="4"/>
     </row>
     <row r="20" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -827,14 +828,14 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="7"/>
+      <c r="F20" s="6"/>
       <c r="G20" s="4"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="9"/>
+      <c r="I20" s="8"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="5"/>
+      <c r="K20" s="11"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="5"/>
+      <c r="M20" s="11"/>
       <c r="N20" s="4"/>
     </row>
     <row r="21" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -843,14 +844,14 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="7"/>
+      <c r="F21" s="6"/>
       <c r="G21" s="4"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="9"/>
+      <c r="I21" s="8"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="5"/>
+      <c r="K21" s="11"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="5"/>
+      <c r="M21" s="11"/>
       <c r="N21" s="4"/>
     </row>
     <row r="22" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -859,14 +860,14 @@
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="7"/>
+      <c r="F22" s="6"/>
       <c r="G22" s="4"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="9"/>
+      <c r="I22" s="8"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="5"/>
+      <c r="K22" s="11"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="5"/>
+      <c r="M22" s="11"/>
       <c r="N22" s="4"/>
     </row>
     <row r="23" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -875,14 +876,14 @@
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="7"/>
+      <c r="F23" s="6"/>
       <c r="G23" s="4"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="9"/>
+      <c r="I23" s="8"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="5"/>
+      <c r="K23" s="11"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="5"/>
+      <c r="M23" s="11"/>
       <c r="N23" s="4"/>
     </row>
     <row r="24" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -891,14 +892,14 @@
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="7"/>
+      <c r="F24" s="6"/>
       <c r="G24" s="4"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="9"/>
+      <c r="I24" s="8"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="5"/>
+      <c r="K24" s="11"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="5"/>
+      <c r="M24" s="11"/>
       <c r="N24" s="4"/>
     </row>
     <row r="25" spans="1:14" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -907,18 +908,19 @@
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="7"/>
+      <c r="F25" s="6"/>
       <c r="G25" s="4"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="9"/>
+      <c r="I25" s="8"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="5"/>
+      <c r="K25" s="11"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="5"/>
+      <c r="M25" s="11"/>
       <c r="N25" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="100" verticalDpi="100" r:id="rId1"/>
 </worksheet>
 </file>